--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zong/GitRepos/zongzw/as3-performance-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{ADE7CC47-971B-BB4A-BA31-2DAE2518346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4F0CE2A3-80DA-C141-9B35-74E7C8157A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23800" yWindow="500" windowWidth="45000" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,9 +535,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -981,7 +982,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1096,7 +1097,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80FC-5C4E-904D-E9C7C06E5395}"/>
+              <c16:uniqueId val="{00000000-4299-A644-8D18-92F1B2659FF4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1213,7 +1214,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80FC-5C4E-904D-E9C7C06E5395}"/>
+              <c16:uniqueId val="{00000001-4299-A644-8D18-92F1B2659FF4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1330,7 +1331,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-80FC-5C4E-904D-E9C7C06E5395}"/>
+              <c16:uniqueId val="{00000002-4299-A644-8D18-92F1B2659FF4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1447,7 +1448,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-80FC-5C4E-904D-E9C7C06E5395}"/>
+              <c16:uniqueId val="{00000003-4299-A644-8D18-92F1B2659FF4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1460,11 +1461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1652871040"/>
-        <c:axId val="1652872768"/>
+        <c:axId val="2098807936"/>
+        <c:axId val="2098375728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1652871040"/>
+        <c:axId val="2098807936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,7 +1507,7 @@
             <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1652872768"/>
+        <c:crossAx val="2098375728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1514,7 +1515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1652872768"/>
+        <c:axId val="2098375728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,7 +1566,7 @@
             <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1652871040"/>
+        <c:crossAx val="2098807936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1609,7 +1610,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1700,7 +1701,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1815,7 +1816,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ECCC-4041-B1FE-DF5FAF9DB22D}"/>
+              <c16:uniqueId val="{00000000-3CCD-454D-B33A-18054A164502}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1932,7 +1933,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ECCC-4041-B1FE-DF5FAF9DB22D}"/>
+              <c16:uniqueId val="{00000001-3CCD-454D-B33A-18054A164502}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2049,7 +2050,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ECCC-4041-B1FE-DF5FAF9DB22D}"/>
+              <c16:uniqueId val="{00000002-3CCD-454D-B33A-18054A164502}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2166,7 +2167,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-ECCC-4041-B1FE-DF5FAF9DB22D}"/>
+              <c16:uniqueId val="{00000003-3CCD-454D-B33A-18054A164502}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2283,7 +2284,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-ECCC-4041-B1FE-DF5FAF9DB22D}"/>
+              <c16:uniqueId val="{00000004-3CCD-454D-B33A-18054A164502}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2296,11 +2297,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1192268048"/>
-        <c:axId val="1192269776"/>
+        <c:axId val="2071059600"/>
+        <c:axId val="2104264608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1192268048"/>
+        <c:axId val="2071059600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2342,7 +2343,7 @@
             <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1192269776"/>
+        <c:crossAx val="2104264608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2350,7 +2351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1192269776"/>
+        <c:axId val="2104264608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2402,7 @@
             <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1192268048"/>
+        <c:crossAx val="2071059600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2445,7 +2446,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11628,23 +11629,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02639D8-B9A9-EB1C-85DA-58FCC2971A5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2265BD23-FA4E-F2DD-D373-D112D8D5C445}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11664,23 +11665,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CA9712-F159-0E1A-893E-14DB4BC5CCA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1F4554-0497-F02D-4E46-18378A5BA59B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12001,10 +12002,13 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O66" sqref="O66"/>
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -12772,10 +12776,10 @@
       <c r="F26" s="1" t="d">
         <v>00:00:27.934000000000002225</v>
       </c>
-      <c r="G26" s="1" t="d">
+      <c r="G26" s="2" t="d">
         <v>00:00:45.964000000000000800</v>
       </c>
-      <c r="H26" s="1" t="d">
+      <c r="H26" s="2" t="d">
         <v>00:00:02.2219999999999999650</v>
       </c>
       <c r="I26" s="1" t="d">
